--- a/web/report1_23-09-2019.xlsx
+++ b/web/report1_23-09-2019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Сводный отчет по результатам по состоянию на 23-09-2019</t>
   </si>
@@ -56,73 +56,28 @@
     <t>Технолог</t>
   </si>
   <si>
-    <t>18632, BR15462 Часть 1. Доработка кросс-кассового решения для универсальных ТП</t>
-  </si>
-  <si>
-    <t>Поставка в банк в составе версии</t>
+    <t xml:space="preserve"> BR85148 Абонемент. Блокировка возможности формирования и печати «промежуточной» Книги хранилища ценностей.</t>
+  </si>
+  <si>
+    <t>Хотфикс к 27й версии</t>
   </si>
   <si>
     <t>В работе</t>
   </si>
   <si>
-    <t>Савельев Владимир Александрович</t>
+    <t>Ивашкевич Николай Николаевич</t>
   </si>
   <si>
     <t>ЗАО Спектр</t>
   </si>
   <si>
-    <t>22-07-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передано  в разработку </t>
-  </si>
-  <si>
-    <t>Савельев,Трифонова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прокопьева </t>
-  </si>
-  <si>
-    <t>18854, BR15462 Часть 3. Реализация целевого кросс-кассового решения ЦАБС/М-Банк – Спектрум. Наличные операции ЮЛ</t>
-  </si>
-  <si>
-    <t>29-07-2019</t>
-  </si>
-  <si>
-    <t>Задача передана в разработку до согласования ТЗ</t>
-  </si>
-  <si>
-    <t>Трифонова</t>
-  </si>
-  <si>
-    <t>Кучинский</t>
-  </si>
-  <si>
-    <t>18998, BR15462 Часть 4. Реализация доработок по выдаче чековых книжек для кросс-кассового решения ЦАБС,М-Банк,Спектрум</t>
-  </si>
-  <si>
-    <t>БФТЗ</t>
-  </si>
-  <si>
-    <t>Розанова Людмила Михайловна</t>
-  </si>
-  <si>
-    <t>16-07-2019</t>
-  </si>
-  <si>
-    <t>Иницирована разработка ТЗ</t>
-  </si>
-  <si>
-    <t>Трифонова,Розанова</t>
-  </si>
-  <si>
-    <t>18867, BR15462 Часть 2. Работа с ценностями (векселя, ценности на хранение и т.д.).</t>
-  </si>
-  <si>
     <t>09-07-2019</t>
   </si>
   <si>
-    <t>Розанова</t>
+    <t>Передано  в разработку по абонементу</t>
+  </si>
+  <si>
+    <t>Ивашкевич</t>
   </si>
   <si>
     <t>Харюков</t>
@@ -493,10 +448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:L8"/>
+      <selection activeCell="A3" sqref="A3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -584,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>19</v>
@@ -597,132 +552,18 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>56</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>69</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
